--- a/08.Pteron/01.CTC/TMC/inputs/TMC_充電器販売・施工PF支援_WBS_20251211.xlsx
+++ b/08.Pteron/01.CTC/TMC/inputs/TMC_充電器販売・施工PF支援_WBS_20251211.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z5j7202\WorkSpaces\08.Pteron\01.CTC\TMC\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FE7D3B-38AB-4535-9BC4-BC27516039AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7D07D5-27CC-4BBC-B59E-C114FC4D809B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-765" yWindow="-18225" windowWidth="28800" windowHeight="15345" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="-17370" windowWidth="21600" windowHeight="11295" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="2" r:id="rId1"/>
@@ -5839,11 +5839,11 @@
   </sheetPr>
   <dimension ref="A1:EE95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="23" ySplit="8" topLeftCell="X29" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="23" ySplit="8" topLeftCell="X65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.15"/>
@@ -21929,12 +21929,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c82330db-103f-4488-980e-800a4e343e37" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c4b268b0-fe22-4f30-b039-782524b5a9fc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22151,20 +22153,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c82330db-103f-4488-980e-800a4e343e37" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c4b268b0-fe22-4f30-b039-782524b5a9fc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7724C6AC-B291-4097-A793-78190A07471D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F16A386-1F6A-4FF9-8A52-5E9D4184E0B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="c82330db-103f-4488-980e-800a4e343e37"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="c4b268b0-fe22-4f30-b039-782524b5a9fc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22189,18 +22198,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F16A386-1F6A-4FF9-8A52-5E9D4184E0B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7724C6AC-B291-4097-A793-78190A07471D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c82330db-103f-4488-980e-800a4e343e37"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="c4b268b0-fe22-4f30-b039-782524b5a9fc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>